--- a/R4-1/templates/Provar Regression Test SR/Provar Regression Test SR_Test1_Create2.xlsx
+++ b/R4-1/templates/Provar Regression Test SR/Provar Regression Test SR_Test1_Create2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Incapsulate\Provar\R4-1\R4-1\templates\Provar Regression Test SR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Incapsulate\Documents\311_Console_220119\311_Console_220119\R4-1\templates\Provar Regression Test SR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF9DC6-B03F-4CBF-BB8A-21B4863F0762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -63,9 +64,6 @@
     <t>Additional Details</t>
   </si>
   <si>
-    <t>01/12/2018, 5:00 pm</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
@@ -121,12 +119,15 @@
   </si>
   <si>
     <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>01/12/2018, 05:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -519,23 +520,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="26.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="5"/>
-    <col min="4" max="4" width="26.21875" style="6"/>
-    <col min="5" max="16384" width="26.21875" style="3"/>
+    <col min="1" max="1" width="29.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="5"/>
+    <col min="4" max="4" width="26.1796875" style="6"/>
+    <col min="5" max="16384" width="26.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8">
+    <row r="1" spans="1:4" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,125 +550,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.8">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
